--- a/data_output/prism_passive/all_passive_Stiffness at 67perc ROM.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at 67perc ROM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.8901173525828208</v>
+        <v>1.8901173199573913</v>
       </c>
       <c r="C2">
-        <v>1.5141573827806618</v>
+        <v>1.5141573491018665</v>
       </c>
       <c r="D2">
-        <v>3.2966431163522563</v>
+        <v>3.2966431069195665</v>
       </c>
       <c r="E2">
-        <v>-0.86714916318862345</v>
+        <v>-0.86714912489161389</v>
       </c>
       <c r="F2">
-        <v>2.0747259900092536</v>
+        <v>2.0747259620636562</v>
       </c>
       <c r="G2">
-        <v>1.2967936075391511</v>
+        <v>1.2967935862151847</v>
       </c>
       <c r="H2">
-        <v>2.2837957395488631</v>
+        <v>2.2837956836248625</v>
       </c>
       <c r="I2">
-        <v>1.6652886514932148</v>
+        <v>1.6652886339633204</v>
       </c>
       <c r="J2">
-        <v>2.1516142833505523</v>
+        <v>2.151614239172194</v>
       </c>
       <c r="K2">
-        <v>2.1236779798722658</v>
+        <v>2.1236779459089599</v>
       </c>
       <c r="L2">
-        <v>1.5227689712504098</v>
+        <v>1.5227689367545101</v>
       </c>
       <c r="M2">
-        <v>2.1417953864009536</v>
+        <v>2.1417953598652071</v>
       </c>
       <c r="N2">
-        <v>2.1291515618775034</v>
+        <v>2.1291515209301068</v>
       </c>
       <c r="O2">
-        <v>0.22746722578252948</v>
+        <v>0.2274671902134181</v>
       </c>
       <c r="P2">
-        <v>3.2296058984853486</v>
+        <v>3.2296058315704403</v>
       </c>
       <c r="Q2">
-        <v>0.89780001247612407</v>
+        <v>0.89780000234469814</v>
       </c>
       <c r="R2">
-        <v>1.7430346971285244</v>
+        <v>1.7430346771509821</v>
       </c>
       <c r="S2">
-        <v>3.9697065435181256</v>
+        <v>3.9697065093969748</v>
       </c>
       <c r="T2">
-        <v>0.89337827400480596</v>
+        <v>0.89337826818663379</v>
       </c>
       <c r="U2">
-        <v>1.5557332188993716</v>
+        <v>1.5557331893460769</v>
       </c>
       <c r="V2">
-        <v>6.7813814959902921</v>
+        <v>6.7813813422466342</v>
       </c>
       <c r="W2">
-        <v>2.1041266675435262</v>
+        <v>2.1041266341965081</v>
       </c>
       <c r="X2">
-        <v>2.0418551278798001</v>
+        <v>2.0418550639382977</v>
       </c>
       <c r="Y2">
-        <v>1.140397633338827</v>
+        <v>1.140397615361521</v>
       </c>
       <c r="Z2">
-        <v>0.44841848562024406</v>
+        <v>0.44841848125039363</v>
       </c>
       <c r="AA2">
-        <v>2.0279368297444678</v>
+        <v>2.027936793027254</v>
       </c>
       <c r="AB2">
-        <v>1.3910052419770254</v>
+        <v>1.3910051982064768</v>
       </c>
       <c r="AC2">
-        <v>2.9140559316865051</v>
+        <v>2.9140558667757883</v>
       </c>
       <c r="AD2">
-        <v>0.27423311247967014</v>
+        <v>0.27423304996812059</v>
       </c>
       <c r="AE2">
-        <v>0.31825299639544496</v>
+        <v>0.31825300318624045</v>
       </c>
       <c r="AF2">
-        <v>1.9467795010335438</v>
+        <v>1.9467794590978635</v>
       </c>
       <c r="AG2">
-        <v>2.3844042246327639</v>
+        <v>2.3844041302161085</v>
       </c>
       <c r="AH2">
-        <v>1.4580413704814674</v>
+        <v>1.4580413353735577</v>
       </c>
       <c r="AI2">
-        <v>1.5460562272528153</v>
+        <v>1.5460561880841948</v>
       </c>
       <c r="AJ2">
-        <v>2.3029001745152229</v>
+        <v>2.302900154699496</v>
       </c>
       <c r="AK2">
-        <v>1.3517035218016458</v>
+        <v>1.3517034958800953</v>
       </c>
       <c r="AL2">
-        <v>1.8392445364982473</v>
+        <v>1.839244539858359</v>
       </c>
       <c r="AM2">
-        <v>1.778903212793338</v>
+        <v>1.7789031821728951</v>
       </c>
       <c r="AN2">
-        <v>0.34414327007530576</v>
+        <v>0.34414326975449056</v>
       </c>
       <c r="AO2">
-        <v>1.5485842232486413</v>
+        <v>1.548584190518548</v>
       </c>
       <c r="AP2">
-        <v>0.85671879425145492</v>
+        <v>0.85671878312105521</v>
       </c>
       <c r="AQ2">
-        <v>0.10481296363751258</v>
+        <v>0.10481298907761238</v>
       </c>
       <c r="AR2">
-        <v>3.398646806715734</v>
+        <v>3.3986467497305934</v>
       </c>
       <c r="AS2">
-        <v>10.31029811189414</v>
+        <v>10.310298408695298</v>
       </c>
       <c r="AT2">
-        <v>0.5400373195344228</v>
+        <v>0.540037311273737</v>
       </c>
       <c r="AU2">
-        <v>3.9593744077421111</v>
+        <v>3.9593743042755842</v>
       </c>
       <c r="AV2">
-        <v>1.2216277687023351</v>
+        <v>1.2216276674750013</v>
       </c>
       <c r="AW2">
-        <v>0.7245938273058532</v>
+        <v>0.7245938102510634</v>
       </c>
       <c r="AX2">
-        <v>1.6768145544852198</v>
+        <v>1.6768146101801522</v>
       </c>
       <c r="AY2">
-        <v>0.59176639984788171</v>
+        <v>0.59176635582668169</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.376232585992629</v>
+        <v>2.3762325408668956</v>
       </c>
       <c r="C3">
-        <v>1.3255016990764359</v>
+        <v>1.3255016612684094</v>
       </c>
       <c r="D3">
-        <v>1.4299260220997179</v>
+        <v>1.4299259979042349</v>
       </c>
       <c r="E3">
-        <v>3.7197416391550249</v>
+        <v>3.7197416079382015</v>
       </c>
       <c r="F3">
-        <v>0.58842290810521769</v>
+        <v>0.58842289211195875</v>
       </c>
       <c r="G3">
-        <v>1.7481324515102907</v>
+        <v>1.7481324195421781</v>
       </c>
       <c r="H3">
-        <v>2.43845891969604</v>
+        <v>2.4384588701261452</v>
       </c>
       <c r="I3">
-        <v>0.96219666985578511</v>
+        <v>0.96219666214131583</v>
       </c>
       <c r="J3">
-        <v>2.2561373226821102</v>
+        <v>2.2561372785094309</v>
       </c>
       <c r="K3">
-        <v>1.6458732149105078</v>
+        <v>1.6458731930083998</v>
       </c>
       <c r="L3">
-        <v>1.5618408835561957</v>
+        <v>1.5618408548403122</v>
       </c>
       <c r="M3">
-        <v>2.1784809494318438</v>
+        <v>2.1788820711548755</v>
       </c>
       <c r="N3">
-        <v>1.6078906947997953</v>
+        <v>1.6078906665071386</v>
       </c>
       <c r="O3">
-        <v>0.84021008318139101</v>
+        <v>0.84021007298219863</v>
       </c>
       <c r="P3">
-        <v>3.9187215929539141</v>
+        <v>3.9187215215547404</v>
       </c>
       <c r="Q3">
-        <v>1.2655952170225118</v>
+        <v>1.2655951963097192</v>
       </c>
       <c r="R3">
-        <v>0.98539228189284445</v>
+        <v>0.98539231414535733</v>
       </c>
       <c r="S3">
-        <v>2.706763430382038</v>
+        <v>2.7067633915721556</v>
       </c>
       <c r="T3">
-        <v>1.3773606710021515</v>
+        <v>1.3773606561678911</v>
       </c>
       <c r="U3">
-        <v>1.4652841976974584</v>
+        <v>1.465284179831857</v>
       </c>
       <c r="V3">
-        <v>3.2637511796277812</v>
+        <v>3.2637511352270354</v>
       </c>
       <c r="W3">
-        <v>1.4530726841745003</v>
+        <v>1.453072654931566</v>
       </c>
       <c r="X3">
-        <v>1.3886848081705427</v>
+        <v>1.3886847841627605</v>
       </c>
       <c r="Y3">
-        <v>1.1308202445989908</v>
+        <v>1.1308202266736713</v>
       </c>
       <c r="Z3">
-        <v>0.57355298018176049</v>
+        <v>0.57355297429932006</v>
       </c>
       <c r="AA3">
-        <v>2.0753378954262653</v>
+        <v>2.0753378386042867</v>
       </c>
       <c r="AB3">
-        <v>1.4982244382974312</v>
+        <v>1.4982243771348331</v>
       </c>
       <c r="AC3">
-        <v>0.96974481391754708</v>
+        <v>0.96974471600077528</v>
       </c>
       <c r="AD3">
-        <v>2.1543605433777029</v>
+        <v>2.1543604532652614</v>
       </c>
       <c r="AE3">
-        <v>1.8805251866204995</v>
+        <v>1.8805251305625574</v>
       </c>
       <c r="AF3">
-        <v>2.2860214995879229</v>
+        <v>2.2860214635567742</v>
       </c>
       <c r="AG3">
-        <v>2.0271060687716016</v>
+        <v>2.0271060216822612</v>
       </c>
       <c r="AH3">
-        <v>-0.23410743944527213</v>
+        <v>-0.23410731555692144</v>
       </c>
       <c r="AI3">
-        <v>1.4349944212883265</v>
+        <v>1.4349944144265971</v>
       </c>
       <c r="AJ3">
-        <v>1.1851345464347567</v>
+        <v>1.1851345753115687</v>
       </c>
       <c r="AK3">
-        <v>1.2625479239316078</v>
+        <v>1.2625479172172365</v>
       </c>
       <c r="AL3">
-        <v>2.7301069170506187</v>
+        <v>2.7301068769279979</v>
       </c>
       <c r="AM3">
-        <v>2.6096874115188702</v>
+        <v>2.609687357426508</v>
       </c>
       <c r="AN3">
-        <v>-7.2068259997304873E-2</v>
+        <v>-7.2068271792502636E-2</v>
       </c>
       <c r="AO3">
-        <v>3.7038743308602768</v>
+        <v>3.7038742564540819</v>
       </c>
       <c r="AP3">
-        <v>0.83096398184166931</v>
+        <v>0.8309639685999044</v>
       </c>
       <c r="AQ3">
-        <v>0.74948897172093654</v>
+        <v>0.74948897532545733</v>
       </c>
       <c r="AR3">
-        <v>1.729260440706188</v>
+        <v>1.7292604215518916</v>
       </c>
       <c r="AS3">
-        <v>6.2819005474445158</v>
+        <v>6.2819002537883932</v>
       </c>
       <c r="AT3">
-        <v>1.0229385067628527</v>
+        <v>1.0229384915314912</v>
       </c>
       <c r="AU3">
-        <v>-3.9441337030890553</v>
+        <v>-3.9441328205520123</v>
       </c>
       <c r="AV3">
-        <v>1.624607779161731</v>
+        <v>1.6246076449458056</v>
       </c>
       <c r="AW3">
-        <v>-0.78229454422481481</v>
+        <v>-0.78229465958267963</v>
       </c>
       <c r="AX3">
-        <v>1.0331001045789079</v>
+        <v>1.0331001338563508</v>
       </c>
       <c r="AY3">
-        <v>2.1683358747423442</v>
+        <v>2.1683358568499695</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_Stiffness at 67perc ROM.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at 67perc ROM.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>1.8901173199573913</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.5141573491018665</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.2966431069195665</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-0.86714912489161389</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.0747259620636562</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.2967935862151847</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.2837956836248625</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.6652886339633204</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.151614239172194</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.1236779459089599</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.5227689367545101</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>2.1417953598652071</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.1291515209301068</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2274671902134181</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.2296058315704403</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.89780000234469814</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.7430346771509821</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>3.9697065093969748</v>
@@ -588,55 +477,55 @@
         <v>0.44841848125039363</v>
       </c>
       <c r="AA2">
-        <v>2.027936793027254</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.3910051982064768</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2.9140558667757883</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.27423304996812059</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.31825300318624045</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.9467794590978635</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.3844041302161085</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.4580413353735577</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.5460561880841948</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>2.302900154699496</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.3517034958800953</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.839244539858359</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.7789031821728951</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.34414326975449056</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.548584190518548</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.85671878312105521</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.10481298907761238</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>3.3986467497305934</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>2.3762325408668956</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.3255016612684094</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.4299259979042349</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.7197416079382015</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.58842289211195875</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.7481324195421781</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.4384588701261452</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.96219666214131583</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.2561372785094309</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.6458731930083998</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.5618408548403122</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.1788820711548755</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.6078906665071386</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.84021007298219863</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.9187215215547404</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.2655951963097192</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.98539231414535733</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>2.7067633915721556</v>
@@ -743,55 +629,55 @@
         <v>0.57355297429932006</v>
       </c>
       <c r="AA3">
-        <v>2.0753378386042867</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1.4982243771348331</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.96974471600077528</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>2.1543604532652614</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.8805251305625574</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.2860214635567742</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.0271060216822612</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>-0.23410731555692144</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.4349944144265971</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1.1851345753115687</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1.2625479172172365</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>2.7301068769279979</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.609687357426508</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-7.2068271792502636E-2</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>3.7038742564540819</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.8309639685999044</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.74948897532545733</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>1.7292604215518916</v>

--- a/data_output/prism_passive/all_passive_Stiffness at 67perc ROM.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at 67perc ROM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.1036881352541057</v>
+        <v>0.73417456762561273</v>
       </c>
       <c r="C2">
-        <v>1.7264517891373432</v>
+        <v>1.9785532574580063</v>
       </c>
       <c r="D2">
-        <v>1.8452027757228957</v>
+        <v>0.4871534002765382</v>
       </c>
       <c r="E2">
-        <v>1.5347108618589131</v>
+        <v>1.0513439148655763</v>
       </c>
       <c r="F2">
         <v>2.2727934345470677</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.6475154692612248</v>
+        <v>0.94891394799480833</v>
       </c>
       <c r="C3">
-        <v>1.5515270552134308</v>
+        <v>1.4806712274099791</v>
       </c>
       <c r="D3">
-        <v>1.5601133230614328</v>
+        <v>0.92147530980198122</v>
       </c>
       <c r="E3">
-        <v>4.1695562268227224</v>
+        <v>0.95963034906768585</v>
       </c>
       <c r="F3">
         <v>0.69982624058273246</v>

--- a/data_output/prism_passive/all_passive_Stiffness at 67perc ROM.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at 67perc ROM.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.1036881352541057</v>
+        <v>2.3730072090879473</v>
       </c>
       <c r="C2">
-        <v>1.7264517891373432</v>
+        <v>0.73417456762561273</v>
       </c>
       <c r="D2">
-        <v>1.8452027757228957</v>
+        <v>2.0748150802495218</v>
       </c>
       <c r="E2">
-        <v>1.5347108618589131</v>
+        <v>0.4871534002765382</v>
       </c>
       <c r="F2">
         <v>2.2727934345470677</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.6475154692612248</v>
+        <v>1.8416242912100562</v>
       </c>
       <c r="C3">
-        <v>1.5515270552134308</v>
+        <v>0.94891394799480833</v>
       </c>
       <c r="D3">
-        <v>1.5601133230614328</v>
+        <v>3.1102544803664314</v>
       </c>
       <c r="E3">
-        <v>4.1695562268227224</v>
+        <v>0.92147530980198122</v>
       </c>
       <c r="F3">
         <v>0.69982624058273246</v>

--- a/data_output/prism_passive/all_passive_Stiffness at 67perc ROM.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at 67perc ROM.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>2.1036881029082051</v>
+      </c>
+      <c r="C2">
+        <v>1.7264517543035023</v>
+      </c>
+      <c r="D2">
+        <v>1.8452027522448624</v>
+      </c>
+      <c r="E2">
+        <v>1.5347108142456114</v>
+      </c>
+      <c r="F2">
+        <v>2.2727934047544576</v>
+      </c>
+      <c r="G2">
+        <v>1.505216857232226</v>
+      </c>
+      <c r="H2">
+        <v>2.6156262205597733</v>
+      </c>
+      <c r="I2">
+        <v>1.9300547580342708</v>
+      </c>
+      <c r="J2">
+        <v>2.460027917384255</v>
+      </c>
+      <c r="K2">
+        <v>2.5609687782996629</v>
+      </c>
+      <c r="L2">
+        <v>1.7824036216813477</v>
+      </c>
+      <c r="M2">
+        <v>2.3557878665469323</v>
+      </c>
+      <c r="N2">
         <v>2.3730072090879473</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>0.73417456762561273</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>3.4977665591054086</v>
+      </c>
+      <c r="Q2">
+        <v>1.0479082078553694</v>
+      </c>
+      <c r="R2">
+        <v>1.9785532574580063</v>
+      </c>
+      <c r="S2">
+        <v>4.7332912908659814</v>
+      </c>
+      <c r="T2">
+        <v>1.0964799253379871</v>
+      </c>
+      <c r="U2">
+        <v>1.6621800065585477</v>
+      </c>
+      <c r="V2">
+        <v>2.594380043222094</v>
+      </c>
+      <c r="W2">
+        <v>2.1075091825273224</v>
+      </c>
+      <c r="X2">
+        <v>2.0041044889932733</v>
+      </c>
+      <c r="Y2">
+        <v>1.305211603234012</v>
+      </c>
+      <c r="Z2">
+        <v>0.51393261518952815</v>
+      </c>
+      <c r="AA2">
+        <v>2.3988413303419978</v>
+      </c>
+      <c r="AB2">
+        <v>1.5315928037504867</v>
+      </c>
+      <c r="AC2">
+        <v>1.7899039309756022</v>
+      </c>
+      <c r="AD2">
+        <v>1.2595307319795954</v>
+      </c>
+      <c r="AE2">
+        <v>1.7502565879928065</v>
+      </c>
+      <c r="AF2">
+        <v>2.1757693463119985</v>
+      </c>
+      <c r="AG2">
+        <v>2.5017712285161169</v>
+      </c>
+      <c r="AH2">
+        <v>1.4955900294944386</v>
+      </c>
+      <c r="AI2">
+        <v>1.8014937023156443</v>
+      </c>
+      <c r="AJ2">
+        <v>2.7747686365235449</v>
+      </c>
+      <c r="AK2">
+        <v>1.5231032472897041</v>
+      </c>
+      <c r="AL2">
+        <v>1.7849429704749675</v>
+      </c>
+      <c r="AM2">
         <v>2.0748150802495218</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>0.4871534002765382</v>
       </c>
-      <c r="F2">
-        <v>2.2727934345470677</v>
-      </c>
-      <c r="G2">
-        <v>1.5052168807919886</v>
-      </c>
-      <c r="H2">
-        <v>2.6156262806723962</v>
-      </c>
-      <c r="I2">
-        <v>1.9300547855200634</v>
-      </c>
-      <c r="J2">
-        <v>2.4600279619105878</v>
-      </c>
-      <c r="K2">
-        <v>2.5609688131577317</v>
-      </c>
-      <c r="L2">
-        <v>1.7824036594749066</v>
-      </c>
-      <c r="M2">
-        <v>2.3557878940742194</v>
-      </c>
-      <c r="N2">
-        <v>2.3730072536116271</v>
-      </c>
-      <c r="O2">
-        <v>0.73417457579473988</v>
-      </c>
-      <c r="P2">
-        <v>3.4977666292988818</v>
-      </c>
-      <c r="Q2">
-        <v>1.0479082189762403</v>
-      </c>
-      <c r="R2">
-        <v>1.9785532784086044</v>
-      </c>
-      <c r="S2">
-        <v>4.7332913339651119</v>
-      </c>
-      <c r="T2">
-        <v>1.0964799315398159</v>
-      </c>
-      <c r="U2">
-        <v>1.6621800383702237</v>
-      </c>
-      <c r="V2">
-        <v>2.5943800697710788</v>
-      </c>
-      <c r="W2">
-        <v>2.1075092114942913</v>
-      </c>
-      <c r="X2">
-        <v>2.0041045404969964</v>
-      </c>
-      <c r="Y2">
-        <v>1.3052116216391261</v>
-      </c>
-      <c r="Z2">
-        <v>0.51393261971718862</v>
-      </c>
-      <c r="AA2">
-        <v>2.398841374559832</v>
-      </c>
-      <c r="AB2">
-        <v>1.5315928446767888</v>
-      </c>
-      <c r="AC2">
-        <v>1.7899039519364912</v>
-      </c>
-      <c r="AD2">
-        <v>1.2595307757982666</v>
-      </c>
-      <c r="AE2">
-        <v>1.7502566174825496</v>
-      </c>
-      <c r="AF2">
-        <v>2.1757693906412805</v>
-      </c>
-      <c r="AG2">
-        <v>2.501771291654626</v>
-      </c>
-      <c r="AH2">
-        <v>1.4955900582285584</v>
-      </c>
-      <c r="AI2">
-        <v>1.8014937411314043</v>
-      </c>
-      <c r="AJ2">
-        <v>2.7747686614024945</v>
-      </c>
-      <c r="AK2">
-        <v>1.5231032820702919</v>
-      </c>
-      <c r="AL2">
-        <v>1.7849430048588903</v>
-      </c>
-      <c r="AM2">
-        <v>2.074815114430228</v>
-      </c>
-      <c r="AN2">
-        <v>0.48715340521144485</v>
-      </c>
       <c r="AO2">
-        <v>1.7467985228033478</v>
+        <v>1.7467984931100675</v>
       </c>
       <c r="AP2">
-        <v>0.98858377374857631</v>
+        <v>0.98858375892143124</v>
       </c>
       <c r="AQ2">
-        <v>1.0513439303914032</v>
+        <v>1.0513439148655763</v>
       </c>
       <c r="AR2">
-        <v>3.5849258601131</v>
+        <v>3.5849258004118756</v>
       </c>
       <c r="AS2">
-        <v>2.5371520128861018</v>
+        <v>2.5371519691298001</v>
       </c>
       <c r="AT2">
-        <v>0.55844268935887875</v>
+        <v>0.55844268209995618</v>
       </c>
       <c r="AU2">
-        <v>2.7079415124020612</v>
+        <v>2.7079414902968191</v>
       </c>
       <c r="AV2">
-        <v>1.6193792881525795</v>
+        <v>1.6193792512923026</v>
       </c>
       <c r="AW2">
-        <v>0.90311080295770085</v>
+        <v>0.90311078561970359</v>
       </c>
       <c r="AX2">
-        <v>1.368881955492903</v>
+        <v>1.3688819278891855</v>
       </c>
       <c r="AY2">
-        <v>1.0054994344898474</v>
+        <v>1.0054994152634502</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2.6475154241206802</v>
+      </c>
+      <c r="C3">
+        <v>1.5515270243630237</v>
+      </c>
+      <c r="D3">
+        <v>1.5601132977101273</v>
+      </c>
+      <c r="E3">
+        <v>4.1695561905503578</v>
+      </c>
+      <c r="F3">
+        <v>0.69982622452219756</v>
+      </c>
+      <c r="G3">
+        <v>2.0169297149240109</v>
+      </c>
+      <c r="H3">
+        <v>2.7416317906445364</v>
+      </c>
+      <c r="I3">
+        <v>1.1323176420376551</v>
+      </c>
+      <c r="J3">
+        <v>2.5457719103480834</v>
+      </c>
+      <c r="K3">
+        <v>1.8745898382236055</v>
+      </c>
+      <c r="L3">
+        <v>1.7853871084976503</v>
+      </c>
+      <c r="M3">
+        <v>2.4431870502592634</v>
+      </c>
+      <c r="N3">
         <v>1.8416242912100562</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>0.94891394799480833</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>4.3076199611736001</v>
+      </c>
+      <c r="Q3">
+        <v>1.4516235228494825</v>
+      </c>
+      <c r="R3">
+        <v>1.4806712274099791</v>
+      </c>
+      <c r="S3">
+        <v>2.9524417256003463</v>
+      </c>
+      <c r="T3">
+        <v>1.5759339239985122</v>
+      </c>
+      <c r="U3">
+        <v>1.6002996816208115</v>
+      </c>
+      <c r="V3">
+        <v>3.4917780613237337</v>
+      </c>
+      <c r="W3">
+        <v>1.6422393482753468</v>
+      </c>
+      <c r="X3">
+        <v>1.5207169844061177</v>
+      </c>
+      <c r="Y3">
+        <v>1.2727030427402592</v>
+      </c>
+      <c r="Z3">
+        <v>0.65814706384892263</v>
+      </c>
+      <c r="AA3">
+        <v>2.2519875509192513</v>
+      </c>
+      <c r="AB3">
+        <v>1.9218943820647019</v>
+      </c>
+      <c r="AC3">
+        <v>1.3368071102040715</v>
+      </c>
+      <c r="AD3">
+        <v>1.9676310251732714</v>
+      </c>
+      <c r="AE3">
+        <v>1.5299686349417518</v>
+      </c>
+      <c r="AF3">
+        <v>2.6324357425449127</v>
+      </c>
+      <c r="AG3">
+        <v>2.613184708383705</v>
+      </c>
+      <c r="AH3">
+        <v>1.6573427705380981</v>
+      </c>
+      <c r="AI3">
+        <v>1.7531899916614992</v>
+      </c>
+      <c r="AJ3">
+        <v>2.3816258951780602</v>
+      </c>
+      <c r="AK3">
+        <v>1.9668115230624921</v>
+      </c>
+      <c r="AL3">
+        <v>2.6270792395924474</v>
+      </c>
+      <c r="AM3">
         <v>3.1102544803664314</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>0.92147530980198122</v>
       </c>
-      <c r="F3">
-        <v>0.69982624058273246</v>
-      </c>
-      <c r="G3">
-        <v>2.0169297514137772</v>
-      </c>
-      <c r="H3">
-        <v>2.741631843746982</v>
-      </c>
-      <c r="I3">
-        <v>1.1323176501427659</v>
-      </c>
-      <c r="J3">
-        <v>2.5457719548301343</v>
-      </c>
-      <c r="K3">
-        <v>1.8745898614191991</v>
-      </c>
-      <c r="L3">
-        <v>1.7853871392676044</v>
-      </c>
-      <c r="M3">
-        <v>2.4429001209445724</v>
-      </c>
-      <c r="N3">
-        <v>1.8416243212434003</v>
-      </c>
-      <c r="O3">
-        <v>0.94891395863233741</v>
-      </c>
-      <c r="P3">
-        <v>4.3076200348835973</v>
-      </c>
-      <c r="Q3">
-        <v>1.451623544380964</v>
-      </c>
-      <c r="R3">
-        <v>1.4806712619163362</v>
-      </c>
-      <c r="S3">
-        <v>2.9524417660963516</v>
-      </c>
-      <c r="T3">
-        <v>1.5759339401893355</v>
-      </c>
-      <c r="U3">
-        <v>1.6002997000448334</v>
-      </c>
-      <c r="V3">
-        <v>3.4917781070313234</v>
-      </c>
-      <c r="W3">
-        <v>1.6422393756520881</v>
-      </c>
-      <c r="X3">
-        <v>1.5207170093626554</v>
-      </c>
-      <c r="Y3">
-        <v>1.2727030613777326</v>
-      </c>
-      <c r="Z3">
-        <v>0.65814706992328564</v>
-      </c>
-      <c r="AA3">
-        <v>2.2519876084016399</v>
-      </c>
-      <c r="AB3">
-        <v>1.9218944324309089</v>
-      </c>
-      <c r="AC3">
-        <v>1.3368071289443348</v>
-      </c>
-      <c r="AD3">
-        <v>1.9676310599532127</v>
-      </c>
-      <c r="AE3">
-        <v>1.529968663541994</v>
-      </c>
-      <c r="AF3">
-        <v>2.6324357911026595</v>
-      </c>
-      <c r="AG3">
-        <v>2.6131847553461074</v>
-      </c>
-      <c r="AH3">
-        <v>1.6573428292054315</v>
-      </c>
-      <c r="AI3">
-        <v>1.7531900191055914</v>
-      </c>
-      <c r="AJ3">
-        <v>2.3816259161168132</v>
-      </c>
-      <c r="AK3">
-        <v>1.9668115675750717</v>
-      </c>
-      <c r="AL3">
-        <v>2.6270792951970114</v>
-      </c>
-      <c r="AM3">
-        <v>3.1102545522263823</v>
-      </c>
-      <c r="AN3">
-        <v>0.92147532232805718</v>
-      </c>
       <c r="AO3">
-        <v>3.9279307164083548</v>
+        <v>3.9279306313327811</v>
       </c>
       <c r="AP3">
-        <v>0.99155321758956949</v>
+        <v>0.99155320488559617</v>
       </c>
       <c r="AQ3">
-        <v>0.95963036145462211</v>
+        <v>0.95963034906768585</v>
       </c>
       <c r="AR3">
-        <v>1.9367638837498391</v>
+        <v>1.9367638640709461</v>
       </c>
       <c r="AS3">
-        <v>2.235665544247337</v>
+        <v>2.23566550133408</v>
       </c>
       <c r="AT3">
-        <v>0.70975132640262006</v>
+        <v>0.70975131736143016</v>
       </c>
       <c r="AU3">
-        <v>2.7923298205843645</v>
+        <v>2.7923297826099214</v>
       </c>
       <c r="AV3">
-        <v>1.894192929113272</v>
+        <v>1.8941928791955511</v>
       </c>
       <c r="AW3">
-        <v>1.5144171176789027</v>
+        <v>1.5144170787443465</v>
       </c>
       <c r="AX3">
-        <v>1.4109691045196966</v>
+        <v>1.4109690852909353</v>
       </c>
       <c r="AY3">
-        <v>1.9570118922030115</v>
+        <v>1.9570118625919517</v>
       </c>
     </row>
   </sheetData>
